--- a/Util/openl-maven-plugin/it/openl-gen-csr-beans/src/main/openl/rules/Main.xlsx
+++ b/Util/openl-maven-plugin/it/openl-gen-csr-beans/src/main/openl/rules/Main.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\Util\openl-maven-plugin\it\openl-gen-csr-beans\src\main\openl\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF0A3A2-5506-421F-BB1B-06A18F2D699E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C0ED2F-2BA9-48AF-844C-A3002557D46E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8295" yWindow="450" windowWidth="28845" windowHeight="20115" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="mysprs" sheetId="8" r:id="rId4"/>
     <sheet name="mysprs2" sheetId="9" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -156,18 +156,12 @@
     <t>Step0</t>
   </si>
   <si>
-    <t>= instanceOf($Step2["Step2"], Map.class)</t>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
     <t>_res_.$Step4</t>
   </si>
   <si>
-    <t>= instanceOf($Step2["Step4"], java.lang.reflect.Array.newInstance(Map.class, 1).getClass())</t>
-  </si>
-  <si>
     <t>_res_.$Step5</t>
   </si>
   <si>
@@ -186,27 +180,9 @@
     <t>_res_.$Step9</t>
   </si>
   <si>
-    <t>= instanceOf($Step2["Step13"], Map.class)</t>
-  </si>
-  <si>
     <t>_res_.$Step10</t>
   </si>
   <si>
-    <t>= instanceOf(((Object[])$Step2["Step8"])[0], Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((Object[])$Step2["Step14"])[0], Map.class)</t>
-  </si>
-  <si>
-    <t>=  instanceOf(((Object[][])$Step2["Step6"])[0][0], Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((Object[][])$Step2["Step15"])[0][0], Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((Object[][])$Step2["Step9"])[0][0], Map.class)</t>
-  </si>
-  <si>
     <t>_res_.$Step11</t>
   </si>
   <si>
@@ -216,12 +192,6 @@
     <t>Step12</t>
   </si>
   <si>
-    <t>=  instanceOf(((Object[][])$Step2["Step10"])[0][0], Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((Object[])$Step2["Step11"])[0], Map.class)</t>
-  </si>
-  <si>
     <t>_res_.$Step12</t>
   </si>
   <si>
@@ -252,21 +222,6 @@
     <t>= Set m = new HashSet();m.add($Step2);m;</t>
   </si>
   <si>
-    <t>= instanceOf(((Map)$Step2["Step16"]).keySet().iterator().next(), Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((Map)$Step2["Step16"]).values().iterator().next(), Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((List)$Step2["Step17"])[0], Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((Collection)$Step2["Step18"]).iterator().next(), Map.class)</t>
-  </si>
-  <si>
-    <t>= instanceOf(((Collection)$Step2["Step19"]).iterator().next(), Map.class)</t>
-  </si>
-  <si>
     <t>_res_.$Step14</t>
   </si>
   <si>
@@ -291,9 +246,6 @@
     <t>= $Step1 == 0 ? $Step2 : spr1($Step1)</t>
   </si>
   <si>
-    <t>= instanceOf($Step2["Step20"], Map.class)</t>
-  </si>
-  <si>
     <t>Spreadsheet SpreadsheetResult mySpr()</t>
   </si>
   <si>
@@ -342,15 +294,9 @@
     <t>Test runMySpr runMySprTest</t>
   </si>
   <si>
-    <t>_res_["Step1"] : Double</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>_res_["Step2"] : Double</t>
-  </si>
-  <si>
     <t>Spreadsheet Map runMySpr2()</t>
   </si>
   <si>
@@ -375,18 +321,6 @@
     <t>Test runMySpr2 runMySprTest2</t>
   </si>
   <si>
-    <t>_res_["Value1_Step1"] : Double</t>
-  </si>
-  <si>
-    <t>_res_["Value2_Step2"] : Double</t>
-  </si>
-  <si>
-    <t>_res_["Value3_Step3"] : Double</t>
-  </si>
-  <si>
-    <t>_res_["Value4_Step4"] : Double</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -409,6 +343,72 @@
   </si>
   <si>
     <t>= spr1(new Double[]{})</t>
+  </si>
+  <si>
+    <t>= instanceOf($Step2["step2"], Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf($Step2["step4"], java.lang.reflect.Array.newInstance(Map.class, 1).getClass())</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Object[])$Step2["step8"])[0], Map.class)</t>
+  </si>
+  <si>
+    <t>=  instanceOf(((Object[][])$Step2["step6"])[0][0], Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Object[])$Step2["step14"])[0], Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Object[][])$Step2["step15"])[0][0], Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf($Step2["step13"], Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Object[][])$Step2["step9"])[0][0], Map.class)</t>
+  </si>
+  <si>
+    <t>=  instanceOf(((Object[][])$Step2["step10"])[0][0], Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Object[])$Step2["step11"])[0], Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Map)$Step2["step16"]).keySet().iterator().next(), Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Map)$Step2["step16"]).values().iterator().next(), Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((List)$Step2["step17"])[0], Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Collection)$Step2["step18"]).iterator().next(), Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf(((Collection)$Step2["step19"]).iterator().next(), Map.class)</t>
+  </si>
+  <si>
+    <t>= instanceOf($Step2["step20"], Map.class)</t>
+  </si>
+  <si>
+    <t>_res_["step1"] : Double</t>
+  </si>
+  <si>
+    <t>_res_["step2"] : Double</t>
+  </si>
+  <si>
+    <t>_res_["value1Step1"] : Double</t>
+  </si>
+  <si>
+    <t>_res_["value2Step2"] : Double</t>
+  </si>
+  <si>
+    <t>_res_["value3Step3"] : Double</t>
+  </si>
+  <si>
+    <t>_res_["value4Step4"] : Double</t>
   </si>
 </sst>
 </file>
@@ -802,25 +802,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:R65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:C27"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:L68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -828,7 +828,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>0</v>
@@ -838,7 +838,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>2</v>
@@ -848,7 +848,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
         <v>3</v>
@@ -858,7 +858,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -868,7 +868,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
@@ -876,7 +876,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -884,7 +884,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
@@ -892,7 +892,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
@@ -900,15 +900,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
@@ -916,7 +916,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
@@ -924,16 +924,16 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>25</v>
       </c>
@@ -942,7 +942,7 @@
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B18" s="3" t="s">
         <v>27</v>
       </c>
@@ -950,7 +950,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B19" s="3" t="s">
         <v>30</v>
       </c>
@@ -958,72 +958,72 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B20" s="3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B21" s="3" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B24" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B24" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B25" s="3" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B26" s="3" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B27" s="3" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1031,7 +1031,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1039,7 +1039,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1047,7 +1047,7 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>36</v>
@@ -1057,61 +1057,61 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="H33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I33" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I33" s="1" t="s">
+      <c r="J33" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J33" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="K33" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="N33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="M33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="N33" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="O33" s="1" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="Q33" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
         <v>37</v>
@@ -1165,61 +1165,61 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1227,7 +1227,7 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1235,13 +1235,13 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B44" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B45" s="1" t="s">
         <v>0</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B46" s="1" t="s">
         <v>40</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
         <v>2</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B48" t="s">
         <v>3</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>10</v>
       </c>
@@ -1281,132 +1281,132 @@
         <v>34</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>13</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B51" t="s">
         <v>14</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B52" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B53" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B54" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B55" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B56" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B57" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>27</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
         <v>30</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>86</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1418,13 +1418,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B2BE8C9-5872-405A-8490-2DC49555BAE6}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1432,7 +1432,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1440,7 +1440,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>9</v>
@@ -1450,7 +1450,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>0</v>
@@ -1462,7 +1462,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>2</v>
@@ -1474,7 +1474,7 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -1486,7 +1486,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>10</v>
@@ -1498,7 +1498,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>13</v>
@@ -1510,7 +1510,7 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>14</v>
@@ -1522,7 +1522,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>15</v>
@@ -1534,7 +1534,7 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1542,15 +1542,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1566,15 +1566,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B16" s="11" t="s">
         <v>25</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="11" t="s">
         <v>27</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" s="11" t="s">
         <v>30</v>
       </c>
@@ -1598,86 +1598,86 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" s="11" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" s="11" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B22" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="11" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B25" s="11" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B26" s="11" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B27" s="11"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B28" s="11"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B29" s="11"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B30" s="11"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B31" s="11"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B32" s="11"/>
     </row>
   </sheetData>
@@ -1693,15 +1693,15 @@
       <selection activeCell="B3" sqref="B3:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1717,7 +1717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
     </row>
@@ -1731,18 +1731,18 @@
   <dimension ref="A2:E27"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34:D58"/>
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B3" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
@@ -1750,43 +1750,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="12" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
@@ -1797,9 +1797,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -1808,43 +1808,43 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="11"/>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B17" s="7" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -1853,9 +1853,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C20" s="1">
         <v>3</v>
@@ -1864,42 +1864,42 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B21" s="6"/>
       <c r="C21" s="5"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
       <c r="B23" s="11" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
       <c r="B24" s="11" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="E24" s="11"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
       <c r="B25" s="11" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>37</v>
@@ -1909,22 +1909,22 @@
       </c>
       <c r="E25" s="11"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="11"/>
       <c r="B26" s="11" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C26" s="11">
         <v>1</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="11"/>
       <c r="B27" s="11" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="11">
@@ -1940,20 +1940,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C063B9D-D463-454D-B64E-2E98DE8A2991}">
   <dimension ref="B3:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="11" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="11" t="s">
         <v>0</v>
       </c>
@@ -1962,57 +1962,57 @@
       </c>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11"/>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="11" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="13" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="11" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C11" s="11">
         <v>1</v>
@@ -2021,9 +2021,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="11" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C12" s="11">
         <v>3</v>
@@ -2032,53 +2032,53 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="11" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="13" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="11" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C19" s="11">
         <v>1</v>
@@ -2087,9 +2087,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B20" s="11" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="C20" s="11">
         <v>3</v>
@@ -2098,43 +2098,43 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B23" s="11" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="11" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" s="11" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>37</v>
@@ -2143,9 +2143,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="11" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -2153,12 +2153,12 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" s="11" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C27" s="11">
         <v>1</v>

--- a/Util/openl-maven-plugin/it/openl-gen-csr-beans/src/main/openl/rules/Main.xlsx
+++ b/Util/openl-maven-plugin/it/openl-gen-csr-beans/src/main/openl/rules/Main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\OPENL\Util\openl-maven-plugin\it\openl-gen-csr-beans\src\main\openl\rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C0ED2F-2BA9-48AF-844C-A3002557D46E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB7E313-1305-423E-B163-DB6927992A24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15945" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="131">
   <si>
     <t>Steps</t>
   </si>
@@ -409,6 +409,21 @@
   </si>
   <si>
     <t>_res_["value4Step4"] : Double</t>
+  </si>
+  <si>
+    <t>Properties</t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
+    <t>spreadsheetResultPackage</t>
+  </si>
+  <si>
+    <t>org.openl.generated.outputmodel</t>
+  </si>
+  <si>
+    <t>Module</t>
   </si>
 </sst>
 </file>
@@ -1938,10 +1953,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C063B9D-D463-454D-B64E-2E98DE8A2991}">
-  <dimension ref="B3:F27"/>
+  <dimension ref="A3:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -2054,7 +2069,7 @@
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B17" s="13" t="s">
         <v>78</v>
       </c>
@@ -2065,7 +2080,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B18" s="11" t="s">
         <v>0</v>
       </c>
@@ -2076,7 +2091,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B19" s="11" t="s">
         <v>90</v>
       </c>
@@ -2087,7 +2102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B20" s="11" t="s">
         <v>91</v>
       </c>
@@ -2098,24 +2113,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B23" s="11" t="s">
         <v>95</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B24" s="11" t="s">
         <v>83</v>
       </c>
@@ -2132,7 +2147,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B25" s="11" t="s">
         <v>82</v>
       </c>
@@ -2143,7 +2158,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B26" s="11" t="s">
         <v>80</v>
       </c>
@@ -2156,7 +2171,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B27" s="11" t="s">
         <v>81</v>
       </c>
@@ -2166,6 +2181,93 @@
       <c r="D27" s="11">
         <v>4</v>
       </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
